--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3672.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3672.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.294804782303636</v>
+        <v>5.802135944366455</v>
       </c>
       <c r="B1">
-        <v>2.102075902248397</v>
+        <v>5.021834850311279</v>
       </c>
       <c r="C1">
-        <v>5.977224439987663</v>
+        <v>3.618614912033081</v>
       </c>
       <c r="D1">
-        <v>3.955559882860235</v>
+        <v>2.103127956390381</v>
       </c>
       <c r="E1">
-        <v>1.07613018913823</v>
+        <v>1.852848768234253</v>
       </c>
     </row>
   </sheetData>
